--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value611.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value611.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.480624862175265</v>
+        <v>1.0320725440979</v>
       </c>
       <c r="B1">
-        <v>3.619198304649517</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>5.147848788100298</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.500115978389929</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>0.9122928759840063</v>
+        <v>1.103223919868469</v>
       </c>
     </row>
   </sheetData>
